--- a/Evaluation/univariate_vs_multivariate.xlsx
+++ b/Evaluation/univariate_vs_multivariate.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redma\Documents\GitHub\ExerciseClassification\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Github\ExerciseClassification\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C195E8-6335-44B4-BE85-BE994E9DDE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC0971-8079-4B27-BD27-3C9657531F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="1140" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>Mean Accuracy</t>
   </si>
@@ -91,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +109,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,12 +186,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,22 +510,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -522,7 +595,7 @@
         <v>0.85277777777777697</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -557,7 +630,7 @@
         <v>0.68055555555555503</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -592,7 +665,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -627,7 +700,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -662,7 +735,7 @@
         <v>0.84722222222222199</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -697,7 +770,7 @@
         <v>0.52222222222222203</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -732,7 +805,7 @@
         <v>0.47777777777777702</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -767,7 +840,7 @@
         <v>0.78333333333333299</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -799,6 +872,745 @@
         <v>0.99166666666666603</v>
       </c>
       <c r="K10" s="4">
+        <v>0.94166666666666599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25912AB4-B08C-43BC-8147-3FD30FE41591}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.177777778</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.27222222200000001</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.161111111</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.23611111100000001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.19444444399999999</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.141666667</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.241666667</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.19166666700000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.93333333299999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.82222222199999995</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.94722222199999995</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.95277777799999996</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.78611111099999997</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.60277777799999999</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.91388888899999998</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.97777777799999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.436111111</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.39722222200000001</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.25555555600000002</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.47222222200000002</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.28055555599999998</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.15833333299999999</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.49722222199999999</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.43333333299999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.96666666700000003</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.76388888899999996</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.85277777799999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.54722222200000004</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.96944444399999996</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.69444444400000005</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.90833333299999997</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.97777777799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.82777777799999996</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.688888889</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.50555555600000002</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.74444444399999998</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.491666667</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.302777778</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.69444444400000005</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.85833333300000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.57777777799999996</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.61944444399999998</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.63333333300000005</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.39722222200000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.29722222199999998</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.62222222199999999</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.70555555599999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.66111111099999997</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.54722222200000004</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.53611111099999997</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.36944444399999998</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.60833333300000003</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.41388888899999998</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.30555555600000001</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.55833333299999999</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.76111111099999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.76111111099999995</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.63611111099999995</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.45277777800000002</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.78333333299999997</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.52222222200000001</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.35833333299999998</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.74444444399999998</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.82222222199999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.98888888900000005</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.96111111100000002</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.98611111100000004</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.76388888899999996</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.98333333300000003</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.88611111099999995</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.96111111100000002</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.99166666699999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.85277777777777697</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.68055555555555503</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.84722222222222199</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.52222222222222203</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.47777777777777702</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.94166666666666599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FB4FBB-CB70-4779-85B2-D61CE48296A8}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.177777778</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.27222222200000001</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.161111111</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.23611111100000001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.19444444399999999</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.141666667</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.241666667</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.19166666700000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.93333333299999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.82222222199999995</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.94722222199999995</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.95277777799999996</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.78611111099999997</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.60277777799999999</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.91388888899999998</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.97777777799999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.436111111</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.39722222200000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.25555555600000002</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.47222222200000002</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.28055555599999998</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.15833333299999999</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.49722222199999999</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.43333333299999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.96666666700000003</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.76388888899999996</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.85277777799999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.54722222200000004</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.96944444399999996</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.69444444400000005</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.90833333299999997</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.97777777799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.82777777799999996</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.688888889</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.50555555600000002</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.74444444399999998</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.491666667</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.302777778</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.69444444400000005</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.85833333300000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.57777777799999996</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.61944444399999998</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.63333333300000005</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.39722222200000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.29722222199999998</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.62222222199999999</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.70555555599999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.66111111099999997</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.54722222200000004</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.53611111099999997</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.36944444399999998</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.60833333300000003</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.41388888899999998</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.30555555600000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.55833333299999999</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.76111111099999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.76111111099999995</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.63611111099999995</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.45277777800000002</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.78333333299999997</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.52222222200000001</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.35833333299999998</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.74444444399999998</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.82222222199999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.98888888900000005</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.96111111100000002</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.98611111100000004</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.76388888899999996</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.98333333300000003</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.88611111099999995</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.96111111100000002</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.99166666699999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.85277777777777697</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.68055555555555503</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.84722222222222199</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.52222222222222203</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0.47777777777777702</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="J11" s="16">
         <v>0.94166666666666599</v>
       </c>
     </row>
